--- a/biology/Biologie cellulaire et moléculaire/Motif_moléculaire_associé_aux_pathogènes/Motif_moléculaire_associé_aux_pathogènes.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Motif_moléculaire_associé_aux_pathogènes/Motif_moléculaire_associé_aux_pathogènes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Motif_mol%C3%A9culaire_associ%C3%A9_aux_pathog%C3%A8nes</t>
+          <t>Motif_moléculaire_associé_aux_pathogènes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les motifs moléculaires associés aux pathogènes (PAMP, acronyme pour Pathogen-associated molecular pattern) sont des molécules associées aux pathogènes (bactéries, virus, champignons, parasites) reconnus par le système immunitaire inné.
 Ces éliciteurs sont reconnus par des récepteurs de reconnaissance de motifs moléculaires (PRR).
-Lorsqu'ils sont associés aux microbes, ils sont appelés MAMP (Motif moléculaire associé aux microbes). Lorsqu'ils sont associés aux herbivores, ils sont appelés HAMP (Motif moléculaire associé aux herbivores). Lorsqu'ils sont associés aux nématodes, ils sont appelés NAMP (Motif moléculaire associé aux nématodes)[4].
+Lorsqu'ils sont associés aux microbes, ils sont appelés MAMP (Motif moléculaire associé aux microbes). Lorsqu'ils sont associés aux herbivores, ils sont appelés HAMP (Motif moléculaire associé aux herbivores). Lorsqu'ils sont associés aux nématodes, ils sont appelés NAMP (Motif moléculaire associé aux nématodes).
 </t>
         </is>
       </c>
